--- a/src/Radicals/data/radicals.xlsx
+++ b/src/Radicals/data/radicals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\chinese-radicals\src\Radicals\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7E62A8-FECA-433E-A778-52F1AE5C6517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35DEAAB-8807-4AFC-90AD-7653996A13EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1860" windowWidth="22455" windowHeight="13680" xr2:uid="{F2FE6B35-6707-E74A-9E3B-ECAF7957E8A8}"/>
+    <workbookView xWindow="6105" yWindow="870" windowWidth="12690" windowHeight="12900" xr2:uid="{F2FE6B35-6707-E74A-9E3B-ECAF7957E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="651">
   <si>
     <t>一</t>
   </si>
@@ -576,9 +576,6 @@
   </si>
   <si>
     <t>step</t>
-  </si>
-  <si>
-    <t>chì#xec;</t>
   </si>
   <si>
     <t>心</t>
@@ -2490,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADED5D2-9EED-ED4D-B078-ECA3A56D35C4}">
   <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
@@ -2513,25 +2510,25 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2677,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2721,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3183,7 +3180,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -4495,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5039,7 +5036,7 @@
         <v>180</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>181</v>
+        <v>463</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -5059,7 +5056,7 @@
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>"pinyin": "chì#xec;",</v>
+        <v>"pinyin": "chì",</v>
       </c>
       <c r="K61" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5067,7 +5064,7 @@
       </c>
       <c r="L61" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>{"id": "59","traditional": "彳","english": "step","pinyin": "chì#xec;","strokeCount": "3"},</v>
+        <v>{"id": "59","traditional": "彳","english": "step","pinyin": "chì","strokeCount": "3"},</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -5075,19 +5072,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E62" s="2">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5119,13 +5116,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="E63" s="2">
         <v>4</v>
@@ -5161,13 +5158,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E64" s="2">
         <v>4</v>
@@ -5203,19 +5200,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E65" s="2">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5247,10 +5244,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>103</v>
@@ -5289,19 +5286,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="E67" s="2">
         <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G130" si="6">CHAR(34) &amp; "id" &amp; CHAR(34) &amp; ": " &amp; CHAR(34) &amp; A67 &amp; CHAR(34) &amp; ","</f>
@@ -5333,13 +5330,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E68" s="2">
         <v>4</v>
@@ -5375,13 +5372,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E69" s="2">
         <v>4</v>
@@ -5417,10 +5414,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>152</v>
@@ -5459,10 +5456,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>67</v>
@@ -5501,13 +5498,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E72" s="2">
         <v>4</v>
@@ -5543,13 +5540,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E73" s="2">
         <v>4</v>
@@ -5585,13 +5582,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E74" s="2">
         <v>4</v>
@@ -5627,13 +5624,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="E75" s="2">
         <v>4</v>
@@ -5669,13 +5666,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="E76" s="2">
         <v>4</v>
@@ -5711,13 +5708,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="E77" s="2">
         <v>4</v>
@@ -5753,13 +5750,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="E78" s="2">
         <v>4</v>
@@ -5795,13 +5792,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E79" s="2">
         <v>4</v>
@@ -5837,13 +5834,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E80" s="2">
         <v>4</v>
@@ -5879,19 +5876,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="E81" s="2">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G81" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5923,10 +5920,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>64</v>
@@ -5965,13 +5962,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="E83" s="2">
         <v>4</v>
@@ -6007,10 +6004,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>100</v>
@@ -6049,13 +6046,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="E85" s="2">
         <v>4</v>
@@ -6091,19 +6088,19 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="E86" s="2">
         <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G86" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6135,19 +6132,19 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E87" s="2">
         <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G87" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6179,19 +6176,19 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="E88" s="2">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G88" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6223,13 +6220,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="E89" s="2">
         <v>4</v>
@@ -6265,13 +6262,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="E90" s="2">
         <v>4</v>
@@ -6307,13 +6304,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E91" s="2">
         <v>4</v>
@@ -6349,13 +6346,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="E92" s="2">
         <v>4</v>
@@ -6391,13 +6388,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="E93" s="2">
         <v>4</v>
@@ -6433,19 +6430,19 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="E94" s="2">
         <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G94" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6477,19 +6474,19 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E95" s="2">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G95" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6521,13 +6518,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E96" s="2">
         <v>5</v>
@@ -6563,19 +6560,19 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E97" s="2">
         <v>5</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G97" s="1" t="str">
         <f t="shared" si="6"/>
@@ -6607,13 +6604,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E98" s="2">
         <v>5</v>
@@ -6649,13 +6646,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="E99" s="2">
         <v>5</v>
@@ -6691,10 +6688,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>155</v>
@@ -6733,13 +6730,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E101" s="2">
         <v>5</v>
@@ -6775,13 +6772,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E102" s="2">
         <v>5</v>
@@ -6817,13 +6814,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E103" s="2">
         <v>5</v>
@@ -6859,13 +6856,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="E104" s="2">
         <v>5</v>
@@ -6901,13 +6898,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E105" s="2">
         <v>5</v>
@@ -6943,13 +6940,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="E106" s="2">
         <v>5</v>
@@ -6985,13 +6982,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="E107" s="2">
         <v>5</v>
@@ -7027,13 +7024,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="E108" s="2">
         <v>5</v>
@@ -7069,13 +7066,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E109" s="2">
         <v>5</v>
@@ -7111,13 +7108,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D110" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E110" s="2">
         <v>5</v>
@@ -7153,13 +7150,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E111" s="2">
         <v>5</v>
@@ -7195,13 +7192,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E112" s="2">
         <v>5</v>
@@ -7237,10 +7234,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>73</v>
@@ -7279,10 +7276,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>100</v>
@@ -7291,7 +7288,7 @@
         <v>5</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G114" s="1" t="str">
         <f t="shared" si="6"/>
@@ -7323,13 +7320,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E115" s="2">
         <v>4</v>
@@ -7365,13 +7362,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="E116" s="2">
         <v>5</v>
@@ -7407,13 +7404,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="E117" s="2">
         <v>5</v>
@@ -7449,10 +7446,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>58</v>
@@ -7491,13 +7488,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="E119" s="2">
         <v>6</v>
@@ -7533,13 +7530,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="E120" s="2">
         <v>6</v>
@@ -7575,10 +7572,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>85</v>
@@ -7587,7 +7584,7 @@
         <v>6</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G121" s="1" t="str">
         <f t="shared" si="6"/>
@@ -7619,13 +7616,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="E122" s="2">
         <v>6</v>
@@ -7661,19 +7658,19 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="E123" s="2">
         <v>6</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G123" s="1" t="str">
         <f t="shared" si="6"/>
@@ -7705,13 +7702,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E124" s="2">
         <v>6</v>
@@ -7747,13 +7744,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="E125" s="2">
         <v>6</v>
@@ -7789,13 +7786,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="E126" s="2">
         <v>6</v>
@@ -7831,10 +7828,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>30</v>
@@ -7873,13 +7870,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="E128" s="2">
         <v>6</v>
@@ -7915,13 +7912,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="E129" s="2">
         <v>6</v>
@@ -7957,13 +7954,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="D130" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E130" s="2">
         <v>6</v>
@@ -7999,13 +7996,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="E131" s="2">
         <v>6</v>
@@ -8041,13 +8038,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="E132" s="2">
         <v>6</v>
@@ -8083,13 +8080,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E133" s="2">
         <v>6</v>
@@ -8125,13 +8122,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="E134" s="2">
         <v>6</v>
@@ -8167,13 +8164,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E135" s="2">
         <v>6</v>
@@ -8209,13 +8206,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="E136" s="2">
         <v>6</v>
@@ -8251,13 +8248,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="E137" s="2">
         <v>6</v>
@@ -8293,13 +8290,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="E138" s="2">
         <v>6</v>
@@ -8335,13 +8332,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E139" s="2">
         <v>6</v>
@@ -8377,13 +8374,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="E140" s="2">
         <v>6</v>
@@ -8419,19 +8416,19 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="E141" s="2">
         <v>6</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G141" s="1" t="str">
         <f t="shared" si="12"/>
@@ -8463,13 +8460,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="E142" s="2">
         <v>6</v>
@@ -8505,13 +8502,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="E143" s="2">
         <v>6</v>
@@ -8547,13 +8544,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="E144" s="2">
         <v>6</v>
@@ -8589,13 +8586,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="E145" s="2">
         <v>6</v>
@@ -8631,10 +8628,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>2</v>
@@ -8643,7 +8640,7 @@
         <v>6</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G146" s="1" t="str">
         <f t="shared" si="12"/>
@@ -8675,10 +8672,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>109</v>
@@ -8687,7 +8684,7 @@
         <v>6</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G147" s="1" t="str">
         <f t="shared" si="12"/>
@@ -8719,19 +8716,19 @@
         <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E148" s="2">
         <v>7</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G148" s="1" t="str">
         <f t="shared" si="12"/>
@@ -8763,13 +8760,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="E149" s="2">
         <v>7</v>
@@ -8805,19 +8802,19 @@
         <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="E150" s="2">
         <v>7</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G150" s="1" t="str">
         <f t="shared" si="12"/>
@@ -8849,13 +8846,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="E151" s="2">
         <v>7</v>
@@ -8891,13 +8888,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="E152" s="2">
         <v>7</v>
@@ -8933,13 +8930,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="D153" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E153" s="2">
         <v>7</v>
@@ -8975,13 +8972,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="D154" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E154" s="2">
         <v>7</v>
@@ -9017,19 +9014,19 @@
         <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="E155" s="2">
         <v>4</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G155" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9061,13 +9058,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="E156" s="2">
         <v>7</v>
@@ -9103,13 +9100,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="E157" s="2">
         <v>7</v>
@@ -9145,13 +9142,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="E158" s="2">
         <v>7</v>
@@ -9187,13 +9184,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="E159" s="2">
         <v>7</v>
@@ -9229,19 +9226,19 @@
         <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="E160" s="2">
         <v>7</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G160" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9273,13 +9270,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="D161" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E161" s="2">
         <v>7</v>
@@ -9315,13 +9312,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="D162" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E162" s="2">
         <v>7</v>
@@ -9357,13 +9354,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="E163" s="2">
         <v>3</v>
@@ -9399,10 +9396,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>170</v>
@@ -9411,7 +9408,7 @@
         <v>7</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G164" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9443,13 +9440,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="E165" s="2">
         <v>7</v>
@@ -9485,13 +9482,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="E166" s="2">
         <v>7</v>
@@ -9527,13 +9524,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="E167" s="2">
         <v>7</v>
@@ -9569,10 +9566,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>152</v>
@@ -9581,7 +9578,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G168" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9613,19 +9610,19 @@
         <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="E169" s="2">
         <v>8</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G169" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9657,19 +9654,19 @@
         <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="E170" s="2">
         <v>8</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G170" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9701,19 +9698,19 @@
         <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="D171" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E171" s="2">
         <v>8</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G171" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9745,10 +9742,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>58</v>
@@ -9787,13 +9784,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="E173" s="2">
         <v>8</v>
@@ -9829,13 +9826,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="D174" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E174" s="2">
         <v>8</v>
@@ -9871,13 +9868,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="E175" s="2">
         <v>8</v>
@@ -9913,13 +9910,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="E176" s="2">
         <v>8</v>
@@ -9955,13 +9952,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="E177" s="2">
         <v>9</v>
@@ -9997,13 +9994,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="E178" s="2">
         <v>9</v>
@@ -10039,19 +10036,19 @@
         <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="E179" s="2">
         <v>9</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G179" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10083,13 +10080,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="E180" s="2">
         <v>9</v>
@@ -10125,13 +10122,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="E181" s="2">
         <v>9</v>
@@ -10167,19 +10164,19 @@
         <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D182" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="E182" s="2">
         <v>9</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G182" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10211,19 +10208,19 @@
         <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="E183" s="2">
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G183" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10255,19 +10252,19 @@
         <v>182</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="D184" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E184" s="2">
         <v>9</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G184" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10299,10 +10296,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>73</v>
@@ -10311,7 +10308,7 @@
         <v>9</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G185" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10343,13 +10340,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="D186" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E186" s="2">
         <v>9</v>
@@ -10385,13 +10382,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="E187" s="2">
         <v>9</v>
@@ -10427,19 +10424,19 @@
         <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="E188" s="2">
         <v>10</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G188" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10471,13 +10468,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="D189" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E189" s="2">
         <v>9</v>
@@ -10513,13 +10510,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="E190" s="2">
         <v>10</v>
@@ -10555,13 +10552,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="D191" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="E191" s="2">
         <v>10</v>
@@ -10597,19 +10594,19 @@
         <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="D192" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E192" s="2">
         <v>10</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G192" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10641,13 +10638,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="E193" s="2">
         <v>10</v>
@@ -10683,10 +10680,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>58</v>
@@ -10725,13 +10722,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="E195" s="2">
         <v>9</v>
@@ -10758,7 +10755,7 @@
         <v>"strokeCount": "9"</v>
       </c>
       <c r="L195" s="1" t="str">
-        <f t="shared" ref="L195:L215" si="23" xml:space="preserve"> "{" &amp; G195 &amp; H195 &amp; I195 &amp; J195 &amp; K195 &amp; "},"</f>
+        <f t="shared" ref="L195:L214" si="23" xml:space="preserve"> "{" &amp; G195 &amp; H195 &amp; I195 &amp; J195 &amp; K195 &amp; "},"</f>
         <v>{"id": "193","traditional": "鬼","english": "ghost","pinyin": "guǐ","strokeCount": "9"},</v>
       </c>
     </row>
@@ -10767,19 +10764,19 @@
         <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="D196" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="E196" s="2">
         <v>11</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G196" s="1" t="str">
         <f t="shared" si="18"/>
@@ -10811,19 +10808,19 @@
         <v>195</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="D197" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="E197" s="2">
         <v>11</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G197" s="1" t="str">
         <f t="shared" si="18"/>
@@ -10855,19 +10852,19 @@
         <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="D198" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="E198" s="2">
         <v>11</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G198" s="1" t="str">
         <f t="shared" si="18"/>
@@ -10899,13 +10896,13 @@
         <v>197</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="D199" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="E199" s="2">
         <v>11</v>
@@ -10941,19 +10938,19 @@
         <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="D200" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="E200" s="2">
         <v>11</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G200" s="1" t="str">
         <f t="shared" si="18"/>
@@ -10985,13 +10982,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="D201" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="E201" s="2">
         <v>11</v>
@@ -11027,13 +11024,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="D202" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="E202" s="2">
         <v>11</v>
@@ -11069,13 +11066,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="E203" s="2">
         <v>12</v>
@@ -11111,13 +11108,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="D204" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="E204" s="2">
         <v>12</v>
@@ -11153,13 +11150,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="D205" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E205" s="2">
         <v>12</v>
@@ -11195,19 +11192,19 @@
         <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="D206" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E206" s="2">
         <v>12</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G206" s="1" t="str">
         <f t="shared" si="18"/>
@@ -11239,13 +11236,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="D207" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="E207" s="2">
         <v>12</v>
@@ -11281,13 +11278,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="D208" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E208" s="2">
         <v>13</v>
@@ -11323,13 +11320,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="D209" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E209" s="2">
         <v>13</v>
@@ -11365,13 +11362,13 @@
         <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="E210" s="2">
         <v>14</v>
@@ -11407,19 +11404,19 @@
         <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="E211" s="2">
         <v>14</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G211" s="1" t="str">
         <f t="shared" si="18"/>
@@ -11451,19 +11448,19 @@
         <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="E212" s="2">
         <v>15</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G212" s="1" t="str">
         <f t="shared" si="18"/>
@@ -11495,19 +11492,19 @@
         <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="D213" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="E213" s="2">
         <v>16</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G213" s="1" t="str">
         <f t="shared" si="18"/>
@@ -11539,19 +11536,19 @@
         <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="D214" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="E214" s="2">
         <v>16</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G214" s="1" t="str">
         <f t="shared" si="18"/>
@@ -11583,13 +11580,13 @@
         <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="D215" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E215" s="2">
         <v>17</v>
